--- a/Resource/excel/D-道具-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/D-道具-玩家属性-(框架定义,后端维护).xlsx
@@ -278,9 +278,6 @@
     <t>Relation(int)</t>
   </si>
   <si>
-    <t>Group(int)</t>
-  </si>
-  <si>
     <t>Guild(int)</t>
   </si>
   <si>
@@ -398,6 +395,10 @@
   </si>
   <si>
     <t>#itemclass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +953,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,7 +992,7 @@
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1032,13 +1033,13 @@
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>13</v>
@@ -1089,7 +1090,7 @@
         <v>28</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>29</v>
@@ -1258,13 +1259,13 @@
         <v>43</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>44</v>
@@ -1300,63 +1301,63 @@
         <v>54</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>55</v>
       </c>
       <c r="AD4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AG4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="M5" s="5">
         <v>100</v>
@@ -1418,16 +1419,16 @@
     </row>
     <row r="6" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P6" s="6">
         <v>0</v>
@@ -1486,19 +1487,19 @@
     </row>
     <row r="7" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="P7" s="6">
         <v>0</v>
@@ -1557,19 +1558,19 @@
     </row>
     <row r="8" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="P8" s="6">
         <v>0</v>
@@ -1628,19 +1629,19 @@
     </row>
     <row r="9" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="P9" s="6">
         <v>0</v>
@@ -1699,16 +1700,16 @@
     </row>
     <row r="10" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="6">
         <v>0</v>
@@ -1767,16 +1768,16 @@
     </row>
     <row r="11" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P11" s="6">
         <v>0</v>

--- a/Resource/excel/D-道具-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/D-道具-玩家属性-(框架定义,后端维护).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -950,7 +950,7 @@
   <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AB5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>

--- a/Resource/excel/D-道具-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/D-道具-玩家属性-(框架定义,后端维护).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>类名称</t>
   </si>
@@ -399,6 +399,14 @@
   </si>
   <si>
     <t>Team(int)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -947,13 +955,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AB5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -975,27 +983,27 @@
     <col min="20" max="20" width="17.125" style="7" customWidth="1"/>
     <col min="21" max="21" width="11" style="7" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="7" customWidth="1"/>
-    <col min="23" max="23" width="15" style="7" customWidth="1"/>
-    <col min="24" max="24" width="11" style="7" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="7" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="7" customWidth="1"/>
-    <col min="28" max="28" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="9" style="7" customWidth="1"/>
-    <col min="32" max="32" width="11" style="7" customWidth="1"/>
-    <col min="33" max="33" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.375" style="7" customWidth="1"/>
-    <col min="35" max="35" width="16.25" style="7" customWidth="1"/>
-    <col min="36" max="36" width="19.625" style="7" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="7" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="7"/>
+    <col min="23" max="24" width="15" style="7" customWidth="1"/>
+    <col min="25" max="25" width="11" style="7" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="7" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="9" style="7" customWidth="1"/>
+    <col min="33" max="33" width="11" style="7" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.375" style="7" customWidth="1"/>
+    <col min="36" max="36" width="16.25" style="7" customWidth="1"/>
+    <col min="37" max="37" width="19.625" style="7" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="7" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1063,49 +1071,52 @@
         <v>19</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="3">
         <v>1</v>
@@ -1188,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="3">
         <v>3</v>
@@ -1217,8 +1228,11 @@
       <c r="AK3" s="3">
         <v>3</v>
       </c>
+      <c r="AL3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1289,49 +1303,52 @@
         <v>50</v>
       </c>
       <c r="X4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -1390,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="5">
         <v>1</v>
@@ -1399,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="AB5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="5">
         <v>0</v>
@@ -1416,8 +1433,11 @@
       <c r="AG5" s="5">
         <v>0</v>
       </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>71</v>
       </c>
@@ -1457,8 +1477,8 @@
       <c r="X6" s="6">
         <v>0</v>
       </c>
-      <c r="Y6" s="8">
-        <v>1</v>
+      <c r="Y6" s="6">
+        <v>0</v>
       </c>
       <c r="Z6" s="8">
         <v>1</v>
@@ -1466,8 +1486,8 @@
       <c r="AA6" s="8">
         <v>1</v>
       </c>
-      <c r="AB6" s="6">
-        <v>0</v>
+      <c r="AB6" s="8">
+        <v>1</v>
       </c>
       <c r="AC6" s="6">
         <v>0</v>
@@ -1484,8 +1504,11 @@
       <c r="AG6" s="6">
         <v>0</v>
       </c>
+      <c r="AH6" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
@@ -1528,8 +1551,8 @@
       <c r="X7" s="6">
         <v>0</v>
       </c>
-      <c r="Y7" s="8">
-        <v>1</v>
+      <c r="Y7" s="6">
+        <v>0</v>
       </c>
       <c r="Z7" s="8">
         <v>1</v>
@@ -1537,8 +1560,8 @@
       <c r="AA7" s="8">
         <v>1</v>
       </c>
-      <c r="AB7" s="6">
-        <v>0</v>
+      <c r="AB7" s="8">
+        <v>1</v>
       </c>
       <c r="AC7" s="6">
         <v>0</v>
@@ -1555,8 +1578,11 @@
       <c r="AG7" s="6">
         <v>0</v>
       </c>
+      <c r="AH7" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>76</v>
       </c>
@@ -1599,8 +1625,8 @@
       <c r="X8" s="6">
         <v>0</v>
       </c>
-      <c r="Y8" s="8">
-        <v>1</v>
+      <c r="Y8" s="6">
+        <v>0</v>
       </c>
       <c r="Z8" s="8">
         <v>1</v>
@@ -1608,8 +1634,8 @@
       <c r="AA8" s="8">
         <v>1</v>
       </c>
-      <c r="AB8" s="6">
-        <v>0</v>
+      <c r="AB8" s="8">
+        <v>1</v>
       </c>
       <c r="AC8" s="6">
         <v>0</v>
@@ -1626,8 +1652,11 @@
       <c r="AG8" s="6">
         <v>0</v>
       </c>
+      <c r="AH8" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
@@ -1670,8 +1699,8 @@
       <c r="X9" s="6">
         <v>0</v>
       </c>
-      <c r="Y9" s="8">
-        <v>1</v>
+      <c r="Y9" s="6">
+        <v>0</v>
       </c>
       <c r="Z9" s="8">
         <v>1</v>
@@ -1679,8 +1708,8 @@
       <c r="AA9" s="8">
         <v>1</v>
       </c>
-      <c r="AB9" s="6">
-        <v>0</v>
+      <c r="AB9" s="8">
+        <v>1</v>
       </c>
       <c r="AC9" s="6">
         <v>0</v>
@@ -1697,8 +1726,11 @@
       <c r="AG9" s="6">
         <v>0</v>
       </c>
+      <c r="AH9" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
@@ -1738,8 +1770,8 @@
       <c r="X10" s="6">
         <v>0</v>
       </c>
-      <c r="Y10" s="8">
-        <v>1</v>
+      <c r="Y10" s="6">
+        <v>0</v>
       </c>
       <c r="Z10" s="8">
         <v>1</v>
@@ -1747,8 +1779,8 @@
       <c r="AA10" s="8">
         <v>1</v>
       </c>
-      <c r="AB10" s="6">
-        <v>0</v>
+      <c r="AB10" s="8">
+        <v>1</v>
       </c>
       <c r="AC10" s="6">
         <v>0</v>
@@ -1765,8 +1797,11 @@
       <c r="AG10" s="6">
         <v>0</v>
       </c>
+      <c r="AH10" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>82</v>
       </c>
@@ -1806,8 +1841,8 @@
       <c r="X11" s="6">
         <v>0</v>
       </c>
-      <c r="Y11" s="8">
-        <v>1</v>
+      <c r="Y11" s="6">
+        <v>0</v>
       </c>
       <c r="Z11" s="8">
         <v>1</v>
@@ -1815,8 +1850,8 @@
       <c r="AA11" s="8">
         <v>1</v>
       </c>
-      <c r="AB11" s="6">
-        <v>0</v>
+      <c r="AB11" s="8">
+        <v>1</v>
       </c>
       <c r="AC11" s="6">
         <v>0</v>
@@ -1831,6 +1866,9 @@
         <v>0</v>
       </c>
       <c r="AG11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="6">
         <v>0</v>
       </c>
     </row>
